--- a/JVG Calc Clean.xlsx
+++ b/JVG Calc Clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanjones/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F85D45E-928B-2E48-AD51-B45A2A9C8466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE06711-99FB-0247-AA10-5E0C92C259B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15620" yWindow="500" windowWidth="13180" windowHeight="17500" activeTab="1" xr2:uid="{3CB298C1-2274-D34A-B999-B8819E6C46B4}"/>
   </bookViews>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="132">
   <si>
     <t>Total</t>
   </si>
@@ -524,9 +524,6 @@
     <t>Production</t>
   </si>
   <si>
-    <t>Firday</t>
-  </si>
-  <si>
     <t xml:space="preserve">Close </t>
   </si>
 </sst>
@@ -944,23 +941,7 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -985,7 +966,23 @@
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1100,8 +1097,8 @@
     <tableColumn id="5" xr3:uid="{25DAD5B8-0D99-0247-B900-E77BE0CBD06E}" name="Time_Input" totalsRowDxfId="7"/>
     <tableColumn id="6" xr3:uid="{554F7550-FFC7-1D4A-AA07-889CA8DDC985}" name="Time" totalsRowDxfId="6"/>
     <tableColumn id="8" xr3:uid="{41AB6B7C-A6DB-F944-90C4-9C8C5244482E}" name="Tips" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="12" xr3:uid="{1205CFB8-A30F-3241-B1B4-385453BE058D}" name="Total" dataDxfId="1" totalsRowDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="13" xr3:uid="{633E8A8F-D33B-E042-BDAF-23341F1DD0D9}" name="Tip Rate" dataDxfId="0" totalsRowDxfId="2" dataCellStyle="Currency">
+    <tableColumn id="12" xr3:uid="{1205CFB8-A30F-3241-B1B4-385453BE058D}" name="Total" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="13" xr3:uid="{633E8A8F-D33B-E042-BDAF-23341F1DD0D9}" name="Tip Rate" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Currency">
       <calculatedColumnFormula>Pay[[#This Row],[Tips]]/Pay[[#This Row],[Time_Input]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7293,8 +7290,8 @@
   <dimension ref="A1:R304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C304" sqref="C304"/>
+      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F249" sqref="F249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17553,7 +17550,7 @@
         <v>45058</v>
       </c>
       <c r="F233" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="G233" t="s">
         <v>122</v>
@@ -18213,7 +18210,7 @@
         <v>45100</v>
       </c>
       <c r="F248" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="G248" t="s">
         <v>121</v>
@@ -18920,7 +18917,7 @@
         <v>100</v>
       </c>
       <c r="G264" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H264" s="51">
         <v>6.28</v>
